--- a/AfDD_2024_Annex_Table_Tab27.xlsx
+++ b/AfDD_2024_Annex_Table_Tab27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A5441E-BC2D-4466-A7E7-6AADA42B6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5303DAD7-A413-40C4-A5DD-9B612039EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5EF24754-B38F-4BB9-8FE1-302494D2F12C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{071509FC-ABD9-4A57-AE4C-B2B3D5EA9CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F95E5-1948-4672-B0C8-BEB6F611CA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521AA39-2A37-4396-B526-DFF319BF9276}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9182,12 +9182,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AF829B15-F10F-41A6-A2FF-E1B07679E0D3}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{05D3C021-920C-4ABA-BA44-D4F4BC917726}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{520FD16E-1928-4BE6-923A-E09E7B07ED80}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{A4D02AE1-96AC-4C6C-89D4-C07F038C09A0}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{4FBB49A4-A427-4293-9EAF-BD4A194F62B7}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D4E7A5D5-FCFA-45A8-BA8B-882B14C5DB23}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F3291ADB-13CE-4DAC-8990-7749F3FB2BD2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D096B230-559C-40B4-8CCC-BBBD15CF8C2F}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2FC84F56-4A5A-4C89-BD67-C8AB7F0B0D32}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{26CEF598-6998-49F6-81DB-64EC5C86D521}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{24117A08-6959-49AE-A8D3-F5DF4AADB991}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5FFF9E98-F8BF-4FB2-B376-AEB01E5F50E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab27.xlsx
+++ b/AfDD_2024_Annex_Table_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5303DAD7-A413-40C4-A5DD-9B612039EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B38D51-9A6D-40BE-8B17-CCABF0A77013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{071509FC-ABD9-4A57-AE4C-B2B3D5EA9CF3}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{97B5FACF-15C7-42CF-8CE5-E72D50295531}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521AA39-2A37-4396-B526-DFF319BF9276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D161D16A-9852-48B0-A623-B08D58F1A2D3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1553,7 +1553,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="12.42578125" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9077,7 +9077,7 @@
       <c r="X110" s="92"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C111" s="92"/>
@@ -9104,7 +9104,7 @@
       <c r="X111" s="92"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="94" t="s">
         <v>183</v>
       </c>
       <c r="C112" s="92"/>
@@ -9182,12 +9182,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F3291ADB-13CE-4DAC-8990-7749F3FB2BD2}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D096B230-559C-40B4-8CCC-BBBD15CF8C2F}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2FC84F56-4A5A-4C89-BD67-C8AB7F0B0D32}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{26CEF598-6998-49F6-81DB-64EC5C86D521}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{24117A08-6959-49AE-A8D3-F5DF4AADB991}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5FFF9E98-F8BF-4FB2-B376-AEB01E5F50E6}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{1092FB49-9EE4-4D55-A550-BD8241285116}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCDD3D9B-68B2-4770-BE0B-B0F58A8AE34A}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{093C113C-3EE8-4202-86CA-9E4BE74028C8}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6599020B-F7E2-4928-8B54-55436A5DC8B2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{888AEEFD-0E7B-4BBF-9157-54C93A09098E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3286BA14-281B-4F56-B330-328CC7E0C46D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab27.xlsx
+++ b/AfDD_2024_Annex_Table_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B38D51-9A6D-40BE-8B17-CCABF0A77013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7417F0-528A-406C-8291-32D0D1415D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{97B5FACF-15C7-42CF-8CE5-E72D50295531}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A6B045E7-3B69-4ACB-B56E-9F94D6F6A269}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D161D16A-9852-48B0-A623-B08D58F1A2D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4F6C1-7362-45A7-A86A-40602703797A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9182,12 +9182,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{1092FB49-9EE4-4D55-A550-BD8241285116}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCDD3D9B-68B2-4770-BE0B-B0F58A8AE34A}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{093C113C-3EE8-4202-86CA-9E4BE74028C8}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6599020B-F7E2-4928-8B54-55436A5DC8B2}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{888AEEFD-0E7B-4BBF-9157-54C93A09098E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3286BA14-281B-4F56-B330-328CC7E0C46D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3CA45198-F5DF-447C-9E63-48DF926C636D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B23202B0-1A68-4FD6-8E7B-9D96F45507D9}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{17712990-4A69-40CB-A72B-2DD05AFAF8F9}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{DD0FE8FD-D441-443D-A286-924427C4AB5F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F719C6CC-5682-4FDA-94E5-BEE7BF3FBFE6}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{C378CA41-D456-498E-A423-9F4876419E54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
